--- a/ALICORP_Sheets/CRHT_0524095826 (1).xlsx
+++ b/ALICORP_Sheets/CRHT_0524095826 (1).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\ALICORP_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D02D9B2-E69C-4E7B-8E5C-624E4467F65E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67710B64-B2A9-4DB3-BAD4-D21353975C38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-2685" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="cr_srres" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:FE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
